--- a/Beispieldaten.xlsx
+++ b/Beispieldaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ee280f4f63849f6/Automatische Rechnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_4737DCF24D9B072220BB77A48BAE8F94D08870D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE77B92-F931-4625-AF1C-6EC7978D42F8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_4737DCF24D9B072220BB77A48BAE8F94D08870D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DF073DD-1539-4436-A629-D8C2FD370109}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,6 +173,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,12 +558,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
